--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_0_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_0_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7809512696058551, 2.38969322436638]</t>
+          <t>[1.7790294641870599, 2.391615029785175]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.654158357987773, -2.3774214675814647]</t>
+          <t>[-2.666737307551695, -2.3648425180175425]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.2178041163307034, 0.09871897190480006]</t>
+          <t>[-0.2179698676169748, 0.09888472319107144]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.4525423987453303</v>
+        <v>0.4530124748847939</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4525423987453303</v>
+        <v>0.4530124748847939</v>
       </c>
       <c r="W2" t="n">
         <v>11.04304304304351</v>
       </c>
       <c r="X2" t="n">
-        <v>10.43567567567612</v>
+        <v>10.38046046046091</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.65041041041091</v>
+        <v>11.70562562562612</v>
       </c>
     </row>
   </sheetData>
